--- a/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Mar-2025_to_Mar-2025.xlsx
+++ b/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Mar-2025_to_Mar-2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Mar-2025 (Leave Date)</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Mar-2025 Leave Summary</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Unplanned Leave</t>
+  </si>
+  <si>
+    <t>WFH</t>
   </si>
 </sst>
 </file>
@@ -161,13 +173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.52734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -427,6 +439,43 @@
         <v>3</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Mar-2025_to_Mar-2025.xlsx
+++ b/backend/slack-hrbp/reports/Attendance_sneha_hr_from_Mar-2025_to_Mar-2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Mar-2025 (Leave Date)</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>2025-03-31</t>
+  </si>
+  <si>
+    <t>Mar-2025 Leave Summary</t>
+  </si>
+  <si>
+    <t>Sick Leave</t>
+  </si>
+  <si>
+    <t>Unplanned Leave</t>
+  </si>
+  <si>
+    <t>WFH</t>
   </si>
 </sst>
 </file>
@@ -161,13 +173,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="21.6015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.52734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -376,7 +388,7 @@
         <v>28</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -392,7 +404,7 @@
         <v>30</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -425,6 +437,43 @@
       </c>
       <c r="B32" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B36" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B37" t="n" s="0">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n" s="0">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
